--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479743.348006899</v>
+        <v>1576413.324491272</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>163.8832149743663</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.8924451980587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>167.5990957313722</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>302.7074269809883</v>
+        <v>164.3341462707212</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>111.0198001535312</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>203.1829210524916</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.9482682581906</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>301.0462453066053</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.12622810974133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>129.0326605836837</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3286643421945</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971812</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.398536716038098</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>165.6040273698191</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>111.2527235042584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5674611446723</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>274.1284239037656</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>82.26790245020096</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>109.7811651255454</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.8054861882838</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>84.69473660442846</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.6286547214873</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>241.1325567395866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>77.27446886463737</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>28.96226682448763</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>119.5976297100114</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>179.7112698902606</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.855211652197</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>529.4200491697815</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>529.4200491697815</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.355323790141</v>
+        <v>2354.97751619025</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.586668520027</v>
+        <v>2354.97751619025</v>
       </c>
       <c r="X5" t="n">
-        <v>1610.120910258947</v>
+        <v>2354.97751619025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4652,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>493.4767912696608</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4896,28 +4898,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>597.7929634148345</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="W10" t="n">
-        <v>290.8087152951862</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8087152951862</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.8087152951862</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5030,55 +5032,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,7 +5135,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902953</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.811212990069</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C13" t="n">
-        <v>612.8750300621621</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D13" t="n">
-        <v>612.8750300621621</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E13" t="n">
-        <v>464.961936479769</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>464.961936479769</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>297.2590998544879</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203087</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193587</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5461,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.513008862232</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1866.513008862232</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,34 +5600,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942216</v>
+        <v>879.542498853856</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>710.6063159259492</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>560.4896765136134</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>412.5765829312203</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>265.6866354333099</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>97.98379880802887</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V19" t="n">
-        <v>1674.827124689058</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W19" t="n">
-        <v>1507.550329366009</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="X19" t="n">
-        <v>1279.560778467991</v>
+        <v>1281.983542827626</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.768199324461</v>
+        <v>1061.190963684096</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5835,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>507.4794957532405</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C22" t="n">
-        <v>507.4794957532405</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D22" t="n">
-        <v>507.4794957532405</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X22" t="n">
-        <v>507.4794957532405</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y22" t="n">
-        <v>507.4794957532405</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,16 +5974,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,49 +5992,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3697.97444730184</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.5269503710301</v>
+        <v>688.4805750348107</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5907674431232</v>
+        <v>519.5443921069038</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>519.5443921069038</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1265.993568618464</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1011.309080412578</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1011.309080412578</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X25" t="n">
-        <v>783.3195295145603</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.5269503710301</v>
+        <v>688.4805750348107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6236,40 +6238,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6476,37 +6478,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6546,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468343</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.892362468343</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X31" t="n">
-        <v>1479.892362468343</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2642.582663047918</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3189.3614801067</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V34" t="n">
-        <v>1796.967499402969</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W34" t="n">
-        <v>1507.550329366009</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X34" t="n">
-        <v>1279.560778467991</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,40 +6925,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7035,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>3666.5180733378</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>3497.581890409893</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>3497.581890409893</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>3349.6687968275</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>3202.778849329589</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>3035.076012704308</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="W37" t="n">
-        <v>665.7049150474453</v>
+        <v>4296.948668209587</v>
       </c>
       <c r="X37" t="n">
-        <v>665.7049150474453</v>
+        <v>4068.95911731157</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>3848.16653816804</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7242,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7257,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>368.3587133864212</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>368.3587133864212</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D40" t="n">
-        <v>368.3587133864212</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E40" t="n">
-        <v>368.3587133864212</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3587133864212</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
         <v>192.8867116300491</v>
@@ -7357,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.890966501056</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1288.206478295169</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>998.7893082582084</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>770.7997573601911</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>550.0071782166609</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7390,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7427,28 +7429,28 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7521,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7264155301116</v>
+        <v>946.665243953484</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>777.7290610255772</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>627.6124216132414</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
         <v>506.8067350374723</v>
@@ -7561,10 +7563,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U43" t="n">
-        <v>1361.364431258369</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V43" t="n">
-        <v>1361.364431258369</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W43" t="n">
-        <v>1361.364431258369</v>
+        <v>1577.095838825271</v>
       </c>
       <c r="X43" t="n">
-        <v>1133.374880360351</v>
+        <v>1349.106287927254</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.374880360351</v>
+        <v>1128.313708783724</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7664,34 +7666,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>124.0833809162806</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>139.3563597571374</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
-        <v>295.4822118493981</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>41.42635057212632</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.59472895491359</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>142.3564781982827</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>120.918970966772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>114.4569318847787</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>16.86650150189686</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>12.08341430184726</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>136.3167509018938</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>176.7418332110456</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.77916716381097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>81.33107165459977</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>28.12636019283346</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>45.39044159700441</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>89.97235223399046</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>137.0635414345406</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>26.8363329365578</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>106.5005683153523</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="G2" t="n">
-        <v>496352.233608729</v>
-      </c>
       <c r="H2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="J2" t="n">
         <v>496352.2336087289</v>
@@ -26344,13 +26346,13 @@
         <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="N2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="O2" t="n">
         <v>496352.233608729</v>
-      </c>
-      <c r="O2" t="n">
-        <v>496352.2336087289</v>
       </c>
       <c r="P2" t="n">
         <v>496352.2336087289</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,25 +26426,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499381</v>
@@ -26454,10 +26456,10 @@
         <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26491,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405085</v>
+        <v>-360740.3570405087</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740362</v>
+        <v>229227.5221740363</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740361</v>
+        <v>229227.5221740358</v>
       </c>
       <c r="E6" t="n">
-        <v>-352499.4223133852</v>
+        <v>-352499.4223133855</v>
       </c>
       <c r="F6" t="n">
         <v>374877.9916800215</v>
       </c>
       <c r="G6" t="n">
-        <v>374877.9916800215</v>
+        <v>374877.9916800213</v>
       </c>
       <c r="H6" t="n">
-        <v>374877.9916800216</v>
+        <v>374877.9916800213</v>
       </c>
       <c r="I6" t="n">
-        <v>374877.9916800215</v>
+        <v>374877.9916800213</v>
       </c>
       <c r="J6" t="n">
-        <v>198454.7724874285</v>
+        <v>198454.7724874286</v>
       </c>
       <c r="K6" t="n">
         <v>374877.9916800215</v>
@@ -26552,16 +26554,16 @@
         <v>374877.9916800215</v>
       </c>
       <c r="M6" t="n">
-        <v>245235.6768410766</v>
+        <v>245235.6768410765</v>
       </c>
       <c r="N6" t="n">
+        <v>374877.9916800213</v>
+      </c>
+      <c r="O6" t="n">
         <v>374877.9916800215</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>374877.9916800214</v>
-      </c>
-      <c r="P6" t="n">
-        <v>374877.9916800215</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>190.7998266463166</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.3454934579948</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>57.43600972671211</v>
+        <v>85.14112624278619</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>25.04483148914659</v>
+        <v>163.4181121994137</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>56.22702094509664</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>48.95472227133638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>262.9821018140712</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>48.19472341080774</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.705752072196</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>17.63253139647415</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -33041,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36604,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>676.3852163291921</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36616,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>678.2774755873642</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
-        <v>751.0723262417303</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37792,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1576413.324491272</v>
+        <v>1570691.712523386</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>163.8832149743663</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>178.5555857945224</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>126.6305324976341</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>164.3341462707212</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>111.0198001535312</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.9482682581906</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>354.752216257426</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.0326605836837</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>189.8587994622797</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>2.398536716038098</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>187.4326629459445</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492352</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.5674611446723</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>117.3713495108167</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.26790245020096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>109.7811651255454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>84.69473660442846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.6286547214873</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
-        <v>77.27446886463737</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>119.5976297100114</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>35.19569619650069</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>175.8585795338384</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1761.414268258235</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C2" t="n">
-        <v>1761.414268258235</v>
+        <v>1723.514638661394</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1365.248940054644</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>979.4606874563995</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4366,16 +4366,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2354.97751619025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2354.97751619025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2354.97751619025</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.838184214438</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.703156598057</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.703156598057</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1483.703156598057</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>597.7929634148345</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5032,37 +5032,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,25 +5135,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>875.4238276939707</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689059</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258585</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783413</v>
+        <v>1385.633576874461</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413808</v>
+        <v>1096.216406837501</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433634</v>
+        <v>1096.216406837501</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8867116300491</v>
+        <v>875.4238276939707</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5600,34 +5600,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.542498853856</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6063159259492</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D19" t="n">
-        <v>560.4896765136134</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>412.5765829312203</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>265.6866354333099</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>97.98379880802887</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>1477.914677062727</v>
       </c>
       <c r="W19" t="n">
-        <v>1509.973093725643</v>
+        <v>1188.497507025766</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.983542827626</v>
+        <v>960.5079561277488</v>
       </c>
       <c r="Y19" t="n">
-        <v>1061.190963684096</v>
+        <v>739.7153769842187</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5758,16 +5758,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456397</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.57468955838</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.78211041485</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6071,7 +6071,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.4805750348107</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>519.5443921069038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>519.5443921069038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>909.2731541783409</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.4805750348107</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6238,16 +6238,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1674.827124689058</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1385.409954652097</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.409954652097</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6651,22 +6651,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1764.65758193153</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.767516148151</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.777965250134</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,34 +6718,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.1112734427666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>181.1112734427666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>181.1112734427666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>181.1112734427666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>181.1112734427666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>583.5523174165364</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.7597382730063</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3666.5180733378</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3497.581890409893</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3497.581890409893</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3349.6687968275</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3202.778849329589</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3035.076012704308</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4586.365838246547</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4586.365838246547</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4586.365838246547</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>4296.948668209587</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>4068.95911731157</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3848.16653816804</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,43 +7159,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1732.058578925876</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2265.590483597801</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2812.369300656583</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>946.665243953484</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C43" t="n">
-        <v>777.7290610255772</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>627.6124216132414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1866.513008862232</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1577.095838825271</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1349.106287927254</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>1128.313708783724</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>633.9069394924948</v>
       </c>
     </row>
   </sheetData>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400235</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,10 +9415,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>272.8828616575873</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>29.61882225792002</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>124.0833809162806</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>176.2173930448433</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>80.35488666587514</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>62.27884386154827</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3564781982827</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,19 +23940,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>64.70498037788346</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270138</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>16.86650150189686</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29.06261313575244</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.3167509018938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>176.7418332110456</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>81.33107165459977</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>28.12636019283346</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
-        <v>89.97235223399046</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>26.8363329365578</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>49.85107585519876</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="E2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="F2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="F2" t="n">
-        <v>496352.2336087288</v>
       </c>
       <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087288</v>
@@ -26352,10 +26352,10 @@
         <v>496352.2336087288</v>
       </c>
       <c r="O2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="P2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
@@ -26438,7 +26438,7 @@
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
@@ -26447,7 +26447,7 @@
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
@@ -26456,10 +26456,10 @@
         <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405087</v>
+        <v>-360740.3570405084</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740363</v>
+        <v>229227.5221740356</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740358</v>
+        <v>229227.5221740353</v>
       </c>
       <c r="E6" t="n">
-        <v>-352499.4223133855</v>
+        <v>-353171.3772156433</v>
       </c>
       <c r="F6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777634</v>
       </c>
       <c r="G6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777634</v>
       </c>
       <c r="H6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777635</v>
       </c>
       <c r="I6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777636</v>
       </c>
       <c r="J6" t="n">
-        <v>198454.7724874286</v>
+        <v>197782.8175851706</v>
       </c>
       <c r="K6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777635</v>
       </c>
       <c r="L6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777633</v>
       </c>
       <c r="M6" t="n">
-        <v>245235.6768410765</v>
+        <v>244563.7219388186</v>
       </c>
       <c r="N6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777633</v>
       </c>
       <c r="O6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777635</v>
       </c>
       <c r="P6" t="n">
-        <v>374877.9916800214</v>
+        <v>374206.0367777635</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7998266463166</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>228.320459947189</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>85.14112624278619</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>25.3007837472271</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>163.4181121994137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>56.22702094509664</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>262.9821018140712</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>31.48572239862756</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>17.63253139647415</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34950,13 +34950,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282428</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,10 +36135,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>728.4729760499195</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>89.2320208001448</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>676.3852163291921</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>631.8075074371754</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>619.2760024961019</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570691.712523386</v>
+        <v>1574097.203647837</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095104</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>178.5555857945224</v>
+        <v>235.0690254684077</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>126.6305324976341</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>120.4120358099648</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>325.9393215830099</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>354.752216257426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>20.18624009875678</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>189.8587994622797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>84.69473660442847</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>187.4326629459445</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.45971852808191</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734066883</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>67.633216199823</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.3713495108167</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>106.1291724544553</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>15.32691334752628</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>163.6898441249688</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292542</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>130.3899231758494</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486443</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.19569619650069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.67037196991714</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>175.8585795338384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2092.477155601806</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.514638661394</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>1365.248940054644</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="E2" t="n">
-        <v>979.4606874563995</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>2092.477155601806</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4403,22 +4403,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4467,25 +4467,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E5" t="n">
-        <v>202.721515416466</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F5" t="n">
-        <v>195.7760146672626</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8526106058535</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8526106058535</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,16 +5044,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.4238276939707</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C13" t="n">
-        <v>706.4876447660638</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D13" t="n">
-        <v>556.371005353728</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1385.633576874461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.216406837501</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1096.216406837501</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>875.4238276939707</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5290,13 +5290,13 @@
         <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3484.372139114998</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,37 +5503,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.914677062727</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1188.497507025766</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>960.5079561277488</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.7153769842187</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5749,49 +5749,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.596327402151</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3907.560977731605</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5828,16 +5828,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>470.2141403171231</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>872.655184290893</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>651.8626051473628</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,49 +5974,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>291.9947530764173</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>625.8141267662633</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.447785386687</v>
+        <v>1076.848340014671</v>
       </c>
       <c r="M23" t="n">
-        <v>2317.998088216515</v>
+        <v>2055.398642844499</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443162</v>
+        <v>2602.177459903281</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
         <v>4461.783306331037</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902949</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549549</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858325</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858325</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>331.5802510734967</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>331.5802510734967</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501054</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.788099626697</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208104</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838498</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858325</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858325</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074195</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972654</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1482.778354750619</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580447</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807093</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902949</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>528.0379765536123</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C28" t="n">
-        <v>528.0379765536123</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>528.0379765536123</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1657.456397634098</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1368.353530759742</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X28" t="n">
-        <v>709.6864413838521</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.6864413838521</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074195</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972654</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1482.778354750619</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580447</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807093</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320268</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454342</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431755</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1644.746393431755</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074195</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427185</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791127</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.72961546305</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903281</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902949</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501054</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.788099626697</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208104</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838498</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858325</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>260.9043113423023</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089251</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277725</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483403</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542185</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902949</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927019</v>
       </c>
       <c r="M37" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674227</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.576850674227</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.89236246834</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.47519243138</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074194</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972654</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1482.778354750619</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580447</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807093</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7244,34 +7244,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320231</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902949</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927019</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501054</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2584.171204687568</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,31 +7511,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.4972173763014</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.1456822065411</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>633.9069394924948</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9069394924948</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9069394924948</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145538</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X46" t="n">
-        <v>633.9069394924948</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y46" t="n">
-        <v>633.9069394924948</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>258.621178561693</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>314.5564971416987</v>
       </c>
       <c r="O14" t="n">
-        <v>89.5245633896194</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>170.1140909277305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.630896635351377</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>272.8828616575873</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.302608186928069e-12</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>67.53663776704798</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>133.253057640031</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>132.999017557019</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476887</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>133.25305764003</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>80.35488666587514</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.2348079241745</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>62.27884386154827</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>105.0742887270134</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>64.70498037788346</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>107.7871025705459</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>77.78783182310825</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>29.06261313575244</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>113.4197768217139</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>236.8107299763017</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>16.1421360569685</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>95.31973221318773</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696858</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>92.48912964370378</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.3889571555941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911108</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>49.85107585519876</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="15">
@@ -26316,37 +26316,37 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="G2" t="n">
+        <v>496352.2336087287</v>
+      </c>
+      <c r="H2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="I2" t="n">
         <v>496352.2336087288</v>
       </c>
-      <c r="F2" t="n">
-        <v>496352.2336087289</v>
-      </c>
-      <c r="G2" t="n">
-        <v>496352.2336087289</v>
-      </c>
-      <c r="H2" t="n">
-        <v>496352.2336087289</v>
-      </c>
-      <c r="I2" t="n">
-        <v>496352.233608729</v>
-      </c>
       <c r="J2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="K2" t="n">
         <v>496352.2336087288</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087288</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.700646165176294e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
@@ -26435,25 +26435,25 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499394</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499389</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749939</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749939</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499388</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499388</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
@@ -26487,28 +26487,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>96383.51825371361</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371361</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-360740.3570405084</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740356</v>
+        <v>229227.5221740363</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740353</v>
+        <v>229227.5221740363</v>
       </c>
       <c r="E6" t="n">
-        <v>-353171.3772156433</v>
+        <v>-352566.617803611</v>
       </c>
       <c r="F6" t="n">
-        <v>374206.0367777634</v>
+        <v>374810.7961897958</v>
       </c>
       <c r="G6" t="n">
-        <v>374206.0367777634</v>
+        <v>374810.7961897954</v>
       </c>
       <c r="H6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897957</v>
       </c>
       <c r="I6" t="n">
-        <v>374206.0367777636</v>
+        <v>374810.7961897963</v>
       </c>
       <c r="J6" t="n">
-        <v>197782.8175851706</v>
+        <v>198387.5769972025</v>
       </c>
       <c r="K6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="L6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897957</v>
       </c>
       <c r="M6" t="n">
-        <v>244563.7219388186</v>
+        <v>245168.481350851</v>
       </c>
       <c r="N6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="O6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897949</v>
       </c>
       <c r="P6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897956</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,22 +26758,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>228.320459947189</v>
+        <v>171.8070202733037</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>141.7069916148869</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.3007837472271</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2976195790724</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>39.33357018799762</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.48572239862756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32560,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987518</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138828</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987518</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987518</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987518</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499121</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35658,16 +35658,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>866.8583325546102</v>
       </c>
       <c r="O14" t="n">
-        <v>597.5775642778385</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502544</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>568.8760771471024</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36208,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>198.4178976040635</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L23" t="n">
-        <v>728.4729760499195</v>
+        <v>455.5901143923314</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230585</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509637</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908538</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636237</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687122</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427818</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230585</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248948</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>575.5896386552663</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193712</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127302</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687122</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427818</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230585</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248948</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282493</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193712</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.6131985422245</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340086</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687122</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265647</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923314</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699296</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509637</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908538</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636237</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127302</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265647</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923314</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535907</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908538</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636237</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127302</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687122</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427818</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230585</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248948</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282483</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193712</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.6131985422245</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127302</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>619.2760024961019</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
